--- a/Running projects/NASTP/013- Invoice for Operation and maintenance charges March 24 (rec).xlsx
+++ b/Running projects/NASTP/013- Invoice for Operation and maintenance charges March 24 (rec).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\NASTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0001630-E8F3-4E4B-9FE4-FA455A0EC1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271CAEAA-1823-471F-A763-2C7D332E9EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,14 +120,14 @@
     <t>M/S GWALPHA TECH (PRIVATE) LIMITED</t>
   </si>
   <si>
-    <t>08 April 2024</t>
-  </si>
-  <si>
     <t>013</t>
   </si>
   <si>
     <t>Operarion and Maintenance charges for HVAC, Fire Fighting &amp; Plumbing pumps.
 For the month of March 24</t>
+  </si>
+  <si>
+    <t>02 June 2024</t>
   </si>
 </sst>
 </file>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A9:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1138,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -1148,7 +1148,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -1237,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="25">
